--- a/src/test/resources/ImportFile/Trackinventories.xlsx
+++ b/src/test/resources/ImportFile/Trackinventories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\git\ZlaataQAseverforme\src\test\resources\ImportFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever5\src\test\resources\ImportFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0F76D8-A89B-4A98-9C61-9127C24101A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A0CF80-94E3-4759-A818-29972ECDB80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4245" windowWidth="21600" windowHeight="11235" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,13 +419,13 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -456,41 +456,41 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>7444</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2">
-        <v>7444</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3">
-        <v>411</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4">
-        <v>41444</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ImportFile/Trackinventories.xlsx
+++ b/src/test/resources/ImportFile/Trackinventories.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarojkumar\git\ZlaataQAsever5\src\test\resources\ImportFile\"/>
     </mc:Choice>
@@ -61,6 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -421,8 +422,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="13.6640625"/>
+    <col min="6" max="6" customWidth="true" width="18.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -446,51 +447,51 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>25</v>
+      <c r="F2" t="n" s="0">
+        <v>30.0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>25</v>
+      <c r="F3" t="n" s="0">
+        <v>47.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="F4">
-        <v>25</v>
+      <c r="F4" t="n" s="0">
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ImportFile/Trackinventories.xlsx
+++ b/src/test/resources/ImportFile/Trackinventories.xlsx
@@ -457,13 +457,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>46.0</v>
+        <v>44.0</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>7</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -471,13 +471,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>47.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -485,13 +485,13 @@
         <v>9</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>44.0</v>
+        <v>12.0</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>9</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>26.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
